--- a/Excel/SkillDivineAttrConfig.xlsx
+++ b/Excel/SkillDivineAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7"/>
@@ -1142,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L6" s="1"/>
     </row>

--- a/Excel/SkillDivineAttrConfig.xlsx
+++ b/Excel/SkillDivineAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>神技·刺杀剑法</t>
   </si>
   <si>
-    <t>敌人距离每多一格，所受伤害提高{0}%</t>
+    <t>刺杀剑术敌人距离每多一格，所受伤害提高{0}%</t>
   </si>
   <si>
     <t>神技·雷电术</t>
@@ -71,7 +71,7 @@
     <t>神技·火符术</t>
   </si>
   <si>
-    <t>火符书可以弹射3格内的其他敌人，最多弹射{0}次，不会重复弹射</t>
+    <t>火符术可以弹射3格内的其他敌人，最多弹射{0}次，不会重复弹射</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1035,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7"/>

--- a/Excel/SkillDivineAttrConfig.xlsx
+++ b/Excel/SkillDivineAttrConfig.xlsx
@@ -1035,7 +1035,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7"/>
@@ -1142,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1"/>
     </row>

--- a/Excel/SkillDivineAttrConfig.xlsx
+++ b/Excel/SkillDivineAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>_Id</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>火符术可以弹射3格内的其他敌人，最多弹射{0}次，不会重复弹射</t>
+  </si>
+  <si>
+    <t>神技·武力盾</t>
+  </si>
+  <si>
+    <t>武力盾额外提高{0}的绝对减伤</t>
+  </si>
+  <si>
+    <t>神技·魔法盾</t>
+  </si>
+  <si>
+    <t>魔法盾额外提高{0}的二次闪避</t>
+  </si>
+  <si>
+    <t>神技·道力盾</t>
+  </si>
+  <si>
+    <t>道力盾每次施法，获得{0}秒的免伤</t>
   </si>
 </sst>
 </file>
@@ -1030,20 +1048,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L8"/>
+  <dimension ref="C1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="45.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.375" style="1" customWidth="1"/>
@@ -1188,9 +1207,72 @@
       </c>
       <c r="L8" s="1"/>
     </row>
+    <row r="9" s="2" customFormat="1" ht="16" customHeight="1" spans="3:12">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>20</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="16" customHeight="1" spans="3:12">
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2005</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>15</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="16" customHeight="1" spans="3:12">
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3005</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 C3:C5 L3:L5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:G3 E4:G4 E5:F5 C3:C5 D4:D5 L3:L5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillDivineAttrConfig.xlsx
+++ b/Excel/SkillDivineAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>神技·道力盾</t>
   </si>
   <si>
-    <t>道力盾每次施法，获得{0}秒的免伤</t>
+    <t>月灵获得{0}%系数的道力盾（无需人物上阵技能）</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/Excel/SkillDivineAttrConfig.xlsx
+++ b/Excel/SkillDivineAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1053,7 +1053,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L11" s="1"/>
     </row>
